--- a/src/analysis_examples/circadb/results_lomb/cosinor_10471036_dolpp1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10471036_dolpp1_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.20503892166312304, 0.3193220550988966]</t>
+          <t>[0.205342448134063, 0.31901852862795665]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.376247808579592e-09</v>
+        <v>3.99213284651978e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>4.376247808579592e-09</v>
+        <v>3.99213284651978e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.006315965113847</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.2453160068283857, -0.767315923399309]</t>
+          <t>[-1.2327370572644627, -0.779894872963232]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.878862843085471e-08</v>
+        <v>7.552145575573377e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>1.878862843085471e-08</v>
+        <v>7.552145575573377e-09</v>
       </c>
       <c r="S2" t="n">
         <v>0.4863675838169671</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.45612683869259885, 0.5166083289413353]</t>
+          <t>[0.4560975834649399, 0.5166375841689943]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>3.789389389389481</v>
       </c>
       <c r="X2" t="n">
-        <v>2.889409409409481</v>
+        <v>2.936776776776849</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.689369369369481</v>
+        <v>4.642002002002112</v>
       </c>
     </row>
   </sheetData>
